--- a/Purdue/Purdue.xlsx
+++ b/Purdue/Purdue.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hain2/Desktop/GitHub/Notes/RemNB/Purdue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{037C29B7-63C5-0E47-B33C-759961F797EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE5428D-2663-DC4F-A822-5C475A8BC05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{AFEB53E5-A291-E14A-921A-D77FACADB536}"/>
+    <workbookView xWindow="0" yWindow="3360" windowWidth="17460" windowHeight="18960" activeTab="3" xr2:uid="{AFEB53E5-A291-E14A-921A-D77FACADB536}"/>
   </bookViews>
   <sheets>
     <sheet name="MT422U3" sheetId="1" r:id="rId1"/>
     <sheet name="MT422U4" sheetId="2" r:id="rId2"/>
     <sheet name="MT422U5" sheetId="3" r:id="rId3"/>
+    <sheet name="MT422U6" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
   <si>
     <t>Nav ?</t>
   </si>
@@ -424,6 +425,12 @@
     <t>Up/Down</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>PricexVols</t>
   </si>
   <si>
@@ -515,6 +522,82 @@
   </si>
   <si>
     <t>IBM 3Months average</t>
+  </si>
+  <si>
+    <t>Par_value</t>
+  </si>
+  <si>
+    <t>PV(Principle)</t>
+  </si>
+  <si>
+    <t>PV(Coupon)</t>
+  </si>
+  <si>
+    <t>New Bond price</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>After Tax Yield</t>
+  </si>
+  <si>
+    <t>Current Yield</t>
+  </si>
+  <si>
+    <t>N_years (2)</t>
+  </si>
+  <si>
+    <t>YTM(2)</t>
+  </si>
+  <si>
+    <t>coupon(2)</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF252525"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF252525"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>A%</t>
+    </r>
+  </si>
+  <si>
+    <t>New YTM</t>
+  </si>
+  <si>
+    <t>Nyears</t>
+  </si>
+  <si>
+    <t>New Current Yield/2</t>
+  </si>
+  <si>
+    <t>FaceValue</t>
+  </si>
+  <si>
+    <t>DiscountYield</t>
+  </si>
+  <si>
+    <t>Day till maturity</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -525,9 +608,9 @@
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +644,26 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF252525"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF252525"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF252525"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -576,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -584,12 +687,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD7DCE6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -612,7 +724,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2383,20 +2499,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E34E4C4-7F7A-1345-B923-2EF177C4BD4E}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2407,25 +2523,25 @@
         <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S1" t="s">
         <v>81</v>
@@ -2437,47 +2553,59 @@
         <v>127</v>
       </c>
       <c r="V1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>83.78</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="W1" t="s">
+      <c r="H2" t="s">
         <v>129</v>
       </c>
-      <c r="X1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>61.85</v>
-      </c>
       <c r="J2" s="19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L2" s="19">
-        <v>169.64</v>
+        <v>172.04</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N2" s="19">
-        <v>600.36</v>
+        <v>606.16</v>
       </c>
       <c r="S2" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <v>59.98</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>61.81</v>
+        <v>83.74</v>
       </c>
       <c r="B3" s="21">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C3" t="str">
         <f>IF(A3&gt;A2,"+","-")</f>
@@ -2485,32 +2613,39 @@
       </c>
       <c r="D3">
         <f>A3*B3</f>
-        <v>61810</v>
+        <v>209350</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(C3="+",D3,"")</f>
-        <v/>
+        <f>IF(C3="+",D3,"0")</f>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>IF(C3="-",D3*-1,"")</f>
-        <v>-61810</v>
+        <f>IF(C3="-",D3,"0")</f>
+        <v>209350</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>F3+F4</f>
+        <v>209350</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19">
-        <v>173.29</v>
+        <v>174.89</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19">
-        <v>613.4</v>
+        <v>617.72</v>
       </c>
       <c r="S3" s="19">
-        <v>11</v>
+        <v>60.01</v>
       </c>
       <c r="T3" s="21">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="U3" t="str">
         <f>IF(S3&gt;S2,"+","-")</f>
@@ -2518,23 +2653,26 @@
       </c>
       <c r="V3">
         <f>S3*T3</f>
-        <v>11000</v>
+        <v>198033</v>
       </c>
       <c r="W3">
-        <f>IF(U3="+",V3,"")</f>
-        <v>11000</v>
+        <f>IF(U3="+",V3,"0")</f>
+        <v>198033</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(U3="-",V3*-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <f>IF(U3="-",V3,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>61.82</v>
+        <v>83.75</v>
       </c>
       <c r="B4" s="21">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C11" si="0">IF(A4&gt;A3,"+","-")</f>
@@ -2542,190 +2680,238 @@
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D11" si="1">A4*B4</f>
-        <v>86548</v>
+        <v>242875</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="2">IF(C4="+",D4,"")</f>
-        <v>86548</v>
+        <f t="shared" ref="E4:E11" si="2">IF(C4="+",D4,"0")</f>
+        <v>242875</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F11" si="3">IF(C4="-",D4*-1,"")</f>
-        <v/>
+        <f t="shared" ref="F4:F11" si="3">IF(C4="-",D4,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>E3+E4</f>
+        <v>242875</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19">
-        <v>180.13</v>
+        <v>185.17</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19">
-        <v>586.76</v>
+        <v>581.12</v>
       </c>
       <c r="O4" s="12">
         <f>AVERAGE(L2:L4)</f>
-        <v>174.35333333333332</v>
+        <v>177.36666666666665</v>
       </c>
       <c r="P4" s="12">
         <f>AVERAGE(N2:N4)</f>
-        <v>600.17333333333329</v>
+        <v>601.66666666666663</v>
       </c>
       <c r="S4" s="19">
-        <v>12</v>
+        <v>59.99</v>
       </c>
       <c r="T4" s="21">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U11" si="4">IF(S4&gt;S3,"+","-")</f>
-        <v>+</v>
+        <f t="shared" ref="U4:U8" si="4">IF(S4&gt;S3,"+","-")</f>
+        <v>-</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V11" si="5">S4*T4</f>
-        <v>1200</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W11" si="6">IF(U4="+",V4,"")</f>
-        <v>1200</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" ref="X4:X11" si="7">IF(U4="-",V4*-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V4:V8" si="5">S4*T4</f>
+        <v>167972</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W8" si="6">IF(U4="+",V4,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X8" si="7">IF(U4="-",V4,"0")</f>
+        <v>167972</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>X3+X4</f>
+        <v>167972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
-        <v>61.85</v>
+        <v>83.78</v>
       </c>
       <c r="B5" s="21">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="23">
         <f t="shared" si="1"/>
-        <v>80405</v>
+        <v>234584</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>80405</v>
+        <v>234584</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5" si="8">E4+E5</f>
+        <v>477459</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19">
-        <v>195.81</v>
+        <v>201.13</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19">
-        <v>544.1</v>
+        <v>545.70000000000005</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O13" si="8">AVERAGE(L3:L5)</f>
-        <v>183.07666666666668</v>
+        <f t="shared" ref="O5:O13" si="9">AVERAGE(L3:L5)</f>
+        <v>187.0633333333333</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" ref="P5:P13" si="9">AVERAGE(N3:N5)</f>
-        <v>581.41999999999996</v>
+        <f t="shared" ref="P5:P13" si="10">AVERAGE(N3:N5)</f>
+        <v>581.51333333333343</v>
       </c>
       <c r="S5" s="19">
-        <v>12</v>
+        <v>59.98</v>
       </c>
       <c r="T5" s="21">
-        <v>500</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
       </c>
       <c r="V5">
         <f t="shared" si="5"/>
-        <v>6000</v>
+        <v>191936</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X5" t="str">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <v>191936</v>
+      </c>
+      <c r="Y5">
+        <f>W5+Y4</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>X5+Z4</f>
+        <v>359908</v>
+      </c>
+      <c r="AB5">
+        <v>112144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
-        <v>61.84</v>
-      </c>
-      <c r="B6" s="19">
-        <v>800</v>
+        <v>83.77</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2950</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <f t="shared" si="1"/>
-        <v>49472</v>
+        <v>247121.5</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>-49472</v>
+        <v>247121.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <f>H3+F6</f>
+        <v>456471.5</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19">
-        <v>196.69</v>
+        <v>194.77</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19">
-        <v>529.02</v>
+        <v>520.70000000000005</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="8"/>
-        <v>190.87666666666667</v>
+        <f t="shared" si="9"/>
+        <v>193.68999999999997</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" si="9"/>
-        <v>553.29333333333341</v>
+        <f t="shared" si="10"/>
+        <v>549.1733333333334</v>
       </c>
       <c r="S6" s="19">
-        <v>11</v>
+        <v>58.99</v>
       </c>
       <c r="T6" s="21">
-        <v>500</v>
+        <v>3350</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="23">
         <f t="shared" si="5"/>
-        <v>5500</v>
+        <v>197616.5</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="X6">
         <f t="shared" si="7"/>
-        <v>-5500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <v>197616.5</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6" si="11">W6+Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="23">
+        <f t="shared" ref="Z6" si="12">X6+Z5</f>
+        <v>557524.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
-        <v>61.87</v>
+        <v>83.8</v>
       </c>
       <c r="B7" s="21">
         <v>1100</v>
@@ -2736,61 +2922,75 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>68057</v>
+        <v>92180</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>68057</v>
+        <v>92180</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>G5+E7</f>
+        <v>569639</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19">
-        <v>204.49</v>
+        <v>206.33</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19">
-        <v>506.38</v>
+        <v>501.58</v>
       </c>
       <c r="O7" s="12">
-        <f t="shared" si="8"/>
-        <v>198.99666666666667</v>
+        <f t="shared" si="9"/>
+        <v>200.74333333333334</v>
       </c>
       <c r="P7" s="12">
-        <f t="shared" si="9"/>
-        <v>526.5</v>
+        <f t="shared" si="10"/>
+        <v>522.66</v>
       </c>
       <c r="S7" s="19">
-        <v>10</v>
+        <v>60.17</v>
       </c>
       <c r="T7" s="21">
-        <v>50</v>
+        <v>4100</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="V7">
         <f>S7*T7</f>
-        <v>500</v>
-      </c>
-      <c r="W7" t="str">
+        <v>246697</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X7">
+        <v>246697</v>
+      </c>
+      <c r="X7" t="str">
         <f t="shared" si="7"/>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>W7+W3</f>
+        <v>444730</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
-        <v>61.88</v>
+        <v>83.81</v>
       </c>
       <c r="B8" s="21">
         <v>1400</v>
@@ -2801,57 +3001,75 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>86632</v>
+        <v>117334</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>86632</v>
+        <v>117334</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>G7+E8</f>
+        <v>686973</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19">
-        <v>222.52</v>
+        <v>227.84</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19">
-        <v>603.69000000000005</v>
+        <v>604.89</v>
       </c>
       <c r="O8" s="12">
-        <f t="shared" si="8"/>
-        <v>207.9</v>
+        <f t="shared" si="9"/>
+        <v>209.64666666666668</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" si="9"/>
-        <v>546.36333333333334</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="21"/>
+        <f t="shared" si="10"/>
+        <v>542.39</v>
+      </c>
+      <c r="S8" s="19">
+        <v>60.08</v>
+      </c>
+      <c r="T8" s="21">
+        <v>4400</v>
+      </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="V8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>264352</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="X8">
         <f t="shared" si="7"/>
+        <v>264352</v>
+      </c>
+      <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="Z8" s="23">
+        <f>X8+Z6</f>
+        <v>821876.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
-        <v>61.92</v>
+        <v>83.85</v>
       </c>
       <c r="B9" s="19">
         <v>600</v>
@@ -2862,60 +3080,51 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>37152</v>
+        <v>50310</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>37152</v>
+        <v>50310</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>E9+G8</f>
+        <v>737283</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19">
-        <v>215.23</v>
+        <v>210.31</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19">
-        <v>540.96</v>
+        <v>539.16</v>
       </c>
       <c r="O9" s="12">
-        <f t="shared" si="8"/>
-        <v>214.08</v>
+        <f t="shared" si="9"/>
+        <v>214.82666666666668</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" si="9"/>
-        <v>550.34333333333336</v>
+        <f t="shared" si="10"/>
+        <v>548.54333333333341</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
-        <v>61.91</v>
+        <v>83.84</v>
       </c>
       <c r="B10" s="21">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2923,60 +3132,51 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>74292</v>
+        <v>108992</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>-74292</v>
+        <v>108992</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <f>H6+F10</f>
+        <v>565463.5</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19">
-        <v>216.23</v>
+        <v>218.15</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19">
-        <v>515.04</v>
+        <v>514</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" si="8"/>
-        <v>217.99333333333334</v>
+        <f t="shared" si="9"/>
+        <v>218.76666666666665</v>
       </c>
       <c r="P10" s="12">
-        <f t="shared" si="9"/>
-        <v>553.23</v>
+        <f t="shared" si="10"/>
+        <v>552.68333333333328</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="21"/>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
-        <v>61.93</v>
+        <v>83.86</v>
       </c>
       <c r="B11" s="21">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2984,488 +3184,1183 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>99088</v>
+        <v>259966</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>99088</v>
+        <v>259966</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>G9+E11</f>
+        <v>997249</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19">
-        <v>213.51</v>
+        <v>213.99</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19">
-        <v>592.64</v>
+        <v>596.67999999999995</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" si="8"/>
-        <v>214.99</v>
+        <f>AVERAGE(L9:L11)</f>
+        <v>214.15</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" si="9"/>
-        <v>549.54666666666662</v>
+        <f t="shared" si="10"/>
+        <v>549.9466666666666</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="21"/>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E12">
         <f>SUM(E3:E11)</f>
-        <v>457882</v>
+        <v>997249</v>
       </c>
       <c r="F12">
         <f>SUM(F3:F11)</f>
-        <v>-185574</v>
-      </c>
-      <c r="G12">
-        <f>SUM(E12:F12)</f>
-        <v>272308</v>
+        <v>565463.5</v>
+      </c>
+      <c r="G12" s="23">
+        <f>G11-H10</f>
+        <v>431785.5</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19">
-        <v>192.29</v>
+        <v>194.09</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19">
-        <v>599.39</v>
+        <v>595.91</v>
       </c>
       <c r="O12" s="12">
-        <f t="shared" si="8"/>
-        <v>207.34333333333333</v>
+        <f t="shared" si="9"/>
+        <v>208.74333333333334</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="9"/>
-        <v>569.0233333333332</v>
+        <f t="shared" si="10"/>
+        <v>568.86333333333323</v>
       </c>
       <c r="U12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W12">
         <f>SUM(W3:W11)</f>
-        <v>12200</v>
+        <v>444730</v>
       </c>
       <c r="X12">
         <f>SUM(X3:X11)</f>
-        <v>-6000</v>
-      </c>
-      <c r="Y12">
-        <f>SUM(W12:X12)</f>
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <v>821876.5</v>
+      </c>
+      <c r="Y12" s="23">
+        <f>Y7-Z8</f>
+        <v>-377146.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="J13" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19">
-        <v>173.1</v>
+        <v>174.22</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19">
-        <v>645.9</v>
+        <v>650.29999999999995</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="8"/>
-        <v>192.96666666666667</v>
+        <f t="shared" si="9"/>
+        <v>194.10000000000002</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" si="9"/>
-        <v>612.64333333333332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>614.29666666666662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="G16" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="21">
-        <v>1634</v>
+        <v>1819</v>
       </c>
       <c r="C18" s="21">
-        <v>825503</v>
+        <v>691343</v>
       </c>
       <c r="D18" s="21">
-        <v>1402</v>
+        <v>1524</v>
       </c>
       <c r="E18" s="21">
-        <v>684997</v>
+        <v>598193</v>
       </c>
       <c r="F18" s="20">
         <f>B18-D18</f>
-        <v>232</v>
-      </c>
-      <c r="G18" s="22">
+        <v>295</v>
+      </c>
+      <c r="G18" s="20">
+        <f>F18</f>
+        <v>295</v>
+      </c>
+      <c r="H18" s="22">
         <f>(E18/D18)/(C18/B18)</f>
-        <v>0.96710594309971931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <v>1.0327506781723943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" s="21">
-        <v>1876</v>
+        <v>2372</v>
       </c>
       <c r="C19" s="21">
-        <v>928360</v>
+        <v>453360</v>
       </c>
       <c r="D19" s="21">
-        <v>1171</v>
+        <v>1957</v>
       </c>
       <c r="E19" s="21">
-        <v>440665</v>
+        <v>452973</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" ref="F19:F22" si="10">B19-D19</f>
-        <v>705</v>
-      </c>
-      <c r="G19" s="22">
-        <f t="shared" ref="G19:G22" si="11">(E19/D19)/(C19/B19)</f>
-        <v>0.76044546972800064</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <f>B19-D19</f>
+        <v>415</v>
+      </c>
+      <c r="G19" s="20">
+        <f>F19+G18</f>
+        <v>710</v>
+      </c>
+      <c r="H19" s="22">
+        <f>(E19/D19)/(C19/B19)</f>
+        <v>1.2110246287775852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B20" s="21">
-        <v>1640</v>
+        <v>1825</v>
       </c>
       <c r="C20" s="21">
-        <v>623369</v>
+        <v>625744</v>
       </c>
       <c r="D20" s="21">
-        <v>1410</v>
+        <v>1532</v>
       </c>
       <c r="E20" s="21">
-        <v>719592</v>
+        <v>721549</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" si="10"/>
-        <v>230</v>
-      </c>
-      <c r="G20" s="22">
-        <f t="shared" si="11"/>
-        <v>1.3426594125135336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+        <f>B20-D20</f>
+        <v>293</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" ref="G20:G22" si="13">F20+G19</f>
+        <v>1003</v>
+      </c>
+      <c r="H20" s="22">
+        <f>(E20/D20)/(C20/B20)</f>
+        <v>1.3736409796577111</v>
+      </c>
+      <c r="Y20">
+        <v>-377146.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="21">
+        <v>2458</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1120446</v>
+      </c>
+      <c r="D21" s="19">
+        <v>556</v>
+      </c>
+      <c r="E21" s="21">
+        <v>174960</v>
+      </c>
+      <c r="F21" s="20">
+        <f>B21-D21</f>
+        <v>1902</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="13"/>
+        <v>2905</v>
+      </c>
+      <c r="H21" s="22">
+        <f>(E21/D21)/(C21/B21)</f>
+        <v>0.69032710599557368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1760</v>
+      </c>
+      <c r="C22" s="21">
+        <v>513426</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1478</v>
+      </c>
+      <c r="E22" s="21">
+        <v>496210</v>
+      </c>
+      <c r="F22" s="20">
+        <f>B22-D22</f>
+        <v>282</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="13"/>
+        <v>3187</v>
+      </c>
+      <c r="H22" s="22">
+        <f>(E22/D22)/(C22/B22)</f>
+        <v>1.1508689903633214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="G25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19">
+        <v>83.78</v>
+      </c>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="21">
-        <v>2495</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1101332</v>
-      </c>
-      <c r="D21" s="19">
-        <v>537</v>
-      </c>
-      <c r="E21" s="21">
-        <v>173003</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="10"/>
-        <v>1958</v>
-      </c>
-      <c r="G21" s="22">
-        <f t="shared" si="11"/>
-        <v>0.72984668586955226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="L27" s="19"/>
+      <c r="M27" s="19">
+        <v>83.74</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="21">
+        <v>2500</v>
+      </c>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="G28" s="19"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="21">
-        <v>1532</v>
-      </c>
-      <c r="C22" s="21">
-        <v>508790</v>
-      </c>
-      <c r="D22" s="21">
-        <v>1459</v>
-      </c>
-      <c r="E22" s="21">
-        <v>498585</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="10"/>
-        <v>73</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" si="11"/>
-        <v>1.0289733220618942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="I28" s="19">
-        <v>70.12</v>
-      </c>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19">
+        <v>83.75</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="21">
+        <v>2900</v>
+      </c>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19">
-        <v>70.14</v>
-      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="21">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="K29" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19">
+        <v>83.78</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="21">
+        <v>2800</v>
+      </c>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19">
-        <v>70.13</v>
-      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="21">
-        <v>1400</v>
-      </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="K30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19">
+        <v>83.77</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21">
+        <v>2950</v>
+      </c>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19">
-        <v>70.09</v>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="21">
-        <v>1800</v>
-      </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="G31" s="19"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="19">
+        <v>2</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19">
+        <v>83.8</v>
+      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="21">
+        <v>1100</v>
+      </c>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="D32" s="21"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19">
-        <v>70.05</v>
-      </c>
+      <c r="G32" s="19"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="21">
-        <v>2100</v>
-      </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="K32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19">
+        <v>83.81</v>
+      </c>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="21">
+        <v>1400</v>
+      </c>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="19">
-        <v>70.069999999999993</v>
-      </c>
+      <c r="I33" s="19"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="21">
-        <v>2700</v>
+      <c r="K33" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="L33" s="19"/>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="M33" s="19">
+        <v>83.85</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19">
+        <v>600</v>
+      </c>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="19">
-        <v>70.03</v>
-      </c>
+      <c r="I34" s="19"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="21">
-        <v>3000</v>
-      </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="K34" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19">
+        <v>83.84</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="21">
+        <v>1300</v>
+      </c>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19">
+        <v>83.86</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="21">
+        <v>3100</v>
+      </c>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="21"/>
-    </row>
-    <row r="37" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="21"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="G37" s="19"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="21"/>
-    </row>
-    <row r="40" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G47" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G46:G47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E291FD8-D1D6-734F-B85B-13BCC95B1DAC}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B2" s="8">
+        <f>3.5%/2</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="9">
+        <f>(D2)/(1+B2)^C2</f>
+        <v>70.682457716686969</v>
+      </c>
+      <c r="F2" s="14">
+        <f>1-(1+B2)^-C2</f>
+        <v>0.29317542283313036</v>
+      </c>
+      <c r="G2" s="12">
+        <f>(A2*D2)*(F2/B2)</f>
+        <v>68.686813349476253</v>
+      </c>
+      <c r="H2" s="9">
+        <f>E2+G2</f>
+        <v>139.36927106616321</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="13">
+        <f>B2*(1-I2)</f>
+        <v>1.225E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>J2*2</f>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <f>2*(A2*D2)/H2</f>
+        <v>5.8836499159898664E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <f>B2*2</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <f>C2/2</f>
+        <v>10</v>
+      </c>
+      <c r="P2" s="13">
+        <f>L2/2</f>
+        <v>2.9418249579949332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>18.55</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(D3)/(1+B3)^C3</f>
+        <v>537.82874012640752</v>
+      </c>
+      <c r="F3" s="14">
+        <f>1-(1+B3)^-C3</f>
+        <v>0.46217125987359242</v>
+      </c>
+      <c r="G3" s="12">
+        <f>(A3*D3)*(F3/B3)</f>
+        <v>543.73089396893215</v>
+      </c>
+      <c r="H3" s="9">
+        <f>E3+G3</f>
+        <v>1081.5596340953398</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="13">
+        <f>B3*(1-I3)</f>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>J3*2</f>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <f>2*(A3*D3)/H3</f>
+        <v>7.3967257540001705E-2</v>
+      </c>
+      <c r="N3" s="4">
+        <f>B3*2</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O3" s="5">
+        <f>C3/2</f>
+        <v>9.2750000000000004</v>
+      </c>
+      <c r="P3" s="13">
+        <f>L3/2</f>
+        <v>3.6983628770000852E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="M4" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="3">
+        <f>5*2</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(D5)/(1+B5)^C5</f>
+        <v>675.56416882579856</v>
+      </c>
+      <c r="F5" s="14">
+        <f>1-(1+B5)^-C5</f>
+        <v>0.32443583117420149</v>
+      </c>
+      <c r="G5" s="12">
+        <f>(A5*D5)*(F5/B5)</f>
+        <v>243.32687338065111</v>
+      </c>
+      <c r="H5" s="9">
+        <f>E5+G5</f>
+        <v>918.8910422064497</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="13">
+        <f>B5*(1-I5)</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="K5" s="13">
+        <f>J5*2</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="L5" s="13">
+        <f>(2*A5*D5)/H5</f>
+        <v>6.5296098497083441E-2</v>
+      </c>
+      <c r="M5" s="13">
+        <f>(H5-H$6)/H$6</f>
+        <v>-8.1108957152952021E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <f>6%/2</f>
+        <v>0.03</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3.0000000081726395E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <f>5*2</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(D6)/(1+B6)^C6</f>
+        <v>744.09391430631604</v>
+      </c>
+      <c r="F6" s="14">
+        <f>1-(1+B6)^-C6</f>
+        <v>0.25590608569368389</v>
+      </c>
+      <c r="G6" s="12">
+        <f>(A6*D6)*(F6/B6)</f>
+        <v>255.90608499654118</v>
+      </c>
+      <c r="H6" s="9">
+        <f>E6+G6</f>
+        <v>999.99999930285719</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="13">
+        <f>B6*(1-I6)</f>
+        <v>2.1000000057208475E-2</v>
+      </c>
+      <c r="K6" s="13">
+        <f>J6*2</f>
+        <v>4.2000000114416951E-2</v>
+      </c>
+      <c r="L6" s="13">
+        <f>(2*A6*D6)/H6</f>
+        <v>6.0000000041828566E-2</v>
+      </c>
+      <c r="M6" s="13">
+        <f>(H6-H$6)/H$6</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1000000</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1.15E-2</v>
+      </c>
+      <c r="Q6">
+        <v>56</v>
+      </c>
+      <c r="R6" s="12">
+        <f>(1-P6*(Q6/360))*O6</f>
+        <v>998211.11111111112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <f>6%/2</f>
+        <v>0.03</v>
+      </c>
+      <c r="B7" s="8">
+        <f>4%/2</f>
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="3">
+        <f>5*2</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="12">
+        <f>(D7)/(1+B7)^C7</f>
+        <v>820.34829987515525</v>
+      </c>
+      <c r="F7" s="14">
+        <f>1-(1+B7)^-C7</f>
+        <v>0.17965170012484466</v>
+      </c>
+      <c r="G7" s="12">
+        <f>(A7*D7)*(F7/B7)</f>
+        <v>269.47755018726701</v>
+      </c>
+      <c r="H7" s="9">
+        <f>E7+G7</f>
+        <v>1089.8258500624222</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="J7" s="13">
+        <f>B7*(1-I7)</f>
+        <v>-6.000000000000001E-3</v>
+      </c>
+      <c r="K7" s="13">
+        <f>J7*2</f>
+        <v>-1.2000000000000002E-2</v>
+      </c>
+      <c r="L7" s="13">
+        <f>(2*A7*D7)/H7</f>
+        <v>5.505466767609097E-2</v>
+      </c>
+      <c r="M7" s="13">
+        <f>(H7-H$6)/H$6</f>
+        <v>8.9825850822186457E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="M8" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <f>6%/2</f>
+        <v>0.03</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="3">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="12">
+        <f>(D9)/(1+B9)^C9</f>
+        <v>308.3186679734203</v>
+      </c>
+      <c r="F9" s="14">
+        <f>1-(1+B9)^-C9</f>
+        <v>0.69168133202657966</v>
+      </c>
+      <c r="G9" s="12">
+        <f>(A9*D9)*(F9/B9)</f>
+        <v>518.76099901993473</v>
+      </c>
+      <c r="H9" s="9">
+        <f>E9+G9</f>
+        <v>827.07966699335498</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="13">
+        <f>B9*(1-I9)</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="K9" s="13">
+        <f>J9*2</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="L9" s="13">
+        <f>(2*A9*D9)/H9</f>
+        <v>7.2544402183305101E-2</v>
+      </c>
+      <c r="M9" s="13">
+        <f>(H9-H$10)/H$10</f>
+        <v>-0.17292033300664503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <f>6%/2</f>
+        <v>0.03</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="C10" s="3">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="12">
+        <f>(D10)/(1+B10)^C10</f>
+        <v>411.9867595159069</v>
+      </c>
+      <c r="F10" s="14">
+        <f>1-(1+B10)^-C10</f>
+        <v>0.58801324048409309</v>
+      </c>
+      <c r="G10" s="12">
+        <f>(A10*D10)*(F10/B10)</f>
+        <v>588.0132404840931</v>
+      </c>
+      <c r="H10" s="9">
+        <f>E10+G10</f>
+        <v>1000</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="13">
+        <f>B10*(1-I10)</f>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="K10" s="13">
+        <f>J10*2</f>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="L10" s="13">
+        <f>(2*A10*D10)/H10</f>
+        <v>0.06</v>
+      </c>
+      <c r="M10" s="13">
+        <f>(H10-H$10)/H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <f>6%/2</f>
+        <v>0.03</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C11" s="3">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="12">
+        <f>(D11)/(1+B11)^C11</f>
+        <v>552.07088897991196</v>
+      </c>
+      <c r="F11" s="14">
+        <f>1-(1+B11)^-C11</f>
+        <v>0.44792911102008803</v>
+      </c>
+      <c r="G11" s="12">
+        <f>(A11*D11)*(F11/B11)</f>
+        <v>671.89366653013201</v>
+      </c>
+      <c r="H11" s="9">
+        <f>E11+G11</f>
+        <v>1223.964555510044</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="J11" s="13">
+        <f>B11*(1-I11)</f>
+        <v>-6.000000000000001E-3</v>
+      </c>
+      <c r="K11" s="13">
+        <f>J11*2</f>
+        <v>-1.2000000000000002E-2</v>
+      </c>
+      <c r="L11" s="13">
+        <f>(2*A11*D11)/H11</f>
+        <v>4.9021027389961565E-2</v>
+      </c>
+      <c r="M11" s="13">
+        <f>(H11-H$10)/H$10</f>
+        <v>0.22396455551004396</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f>1.08*D3</f>
+        <v>1080</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Purdue/Purdue.xlsx
+++ b/Purdue/Purdue.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hain2/Desktop/GitHub/Notes/RemNB/Purdue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE5428D-2663-DC4F-A822-5C475A8BC05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755B73A-7F91-8C4C-BFBD-7DEA8EB104DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="17460" windowHeight="18960" activeTab="3" xr2:uid="{AFEB53E5-A291-E14A-921A-D77FACADB536}"/>
+    <workbookView xWindow="17480" yWindow="760" windowWidth="17080" windowHeight="21580" activeTab="5" xr2:uid="{AFEB53E5-A291-E14A-921A-D77FACADB536}"/>
   </bookViews>
   <sheets>
     <sheet name="MT422U3" sheetId="1" r:id="rId1"/>
     <sheet name="MT422U4" sheetId="2" r:id="rId2"/>
     <sheet name="MT422U5" sheetId="3" r:id="rId3"/>
     <sheet name="MT422U6" sheetId="4" r:id="rId4"/>
+    <sheet name="MT422U7" sheetId="5" r:id="rId5"/>
+    <sheet name="MT422U8" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="301">
   <si>
     <t>Nav ?</t>
   </si>
@@ -599,18 +601,446 @@
   <si>
     <t>price</t>
   </si>
+  <si>
+    <t>current yield</t>
+  </si>
+  <si>
+    <t>Coupon pmt</t>
+  </si>
+  <si>
+    <t>BondPrice</t>
+  </si>
+  <si>
+    <t>pv(principal)</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Bond EquivalentYield APR</t>
+  </si>
+  <si>
+    <t>Discounted Yield</t>
+  </si>
+  <si>
+    <t>Nominal Rate</t>
+  </si>
+  <si>
+    <t>first term</t>
+  </si>
+  <si>
+    <t>terms in a year</t>
+  </si>
+  <si>
+    <t>New Coupon</t>
+  </si>
+  <si>
+    <t>State of Economy</t>
+  </si>
+  <si>
+    <t>Probability of</t>
+  </si>
+  <si>
+    <t>State of Economy</t>
+  </si>
+  <si>
+    <t>Security Return</t>
+  </si>
+  <si>
+    <t>if State Occurs</t>
+  </si>
+  <si>
+    <t>Recession</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Boom</t>
+  </si>
+  <si>
+    <t>Security Returns if State Occurs</t>
+  </si>
+  <si>
+    <t>Probability of State of Economy</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Bust</t>
+  </si>
+  <si>
+    <t>portfolio weight</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>E(Rp)</t>
+  </si>
+  <si>
+    <t>3 Doors, Inc.</t>
+  </si>
+  <si>
+    <t>Down Co.</t>
+  </si>
+  <si>
+    <r>
+      <t>Expected return, E(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF252525"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF252525"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Standard deviation, σ</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>std dv</t>
+  </si>
+  <si>
+    <t>Expected return</t>
+  </si>
+  <si>
+    <t>Risk Free</t>
+  </si>
+  <si>
+    <t>Risk Premium</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Cal_Erp</t>
+  </si>
+  <si>
+    <t>Market return</t>
+  </si>
+  <si>
+    <t>calc_risk_free_rate</t>
+  </si>
+  <si>
+    <t>Stock Sell</t>
+  </si>
+  <si>
+    <t>RiskFree</t>
+  </si>
+  <si>
+    <t>MrktReturn</t>
+  </si>
+  <si>
+    <t>RiskPremium</t>
+  </si>
+  <si>
+    <t>DivYield</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>CapGainYield</t>
+  </si>
+  <si>
+    <t>NextYearPrice</t>
+  </si>
+  <si>
+    <t>stock A</t>
+  </si>
+  <si>
+    <t>stock B</t>
+  </si>
+  <si>
+    <t>Security beta</t>
+  </si>
+  <si>
+    <t>Market Return</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>RisFree</t>
+  </si>
+  <si>
+    <t>2 Equal weight return</t>
+  </si>
+  <si>
+    <t>Portfolio Beta</t>
+  </si>
+  <si>
+    <t>Cal_weight</t>
+  </si>
+  <si>
+    <t>remaining weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> new beta</t>
+  </si>
+  <si>
+    <t>Target Portfolio return</t>
+  </si>
+  <si>
+    <t>Remaining beta</t>
+  </si>
+  <si>
+    <t>Beta?</t>
+  </si>
+  <si>
+    <t>New Portfolio beta</t>
+  </si>
+  <si>
+    <t>given portfolio beta find stock betas</t>
+  </si>
+  <si>
+    <t>weight1</t>
+  </si>
+  <si>
+    <t>weight2</t>
+  </si>
+  <si>
+    <t>annual sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n months </t>
+  </si>
+  <si>
+    <t>N_month sigma</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF252525"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF252525"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF252525"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Risk-free</t>
+  </si>
+  <si>
+    <t>tracking error</t>
+  </si>
+  <si>
+    <t>X_Jensen</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Fund alpha</t>
+  </si>
+  <si>
+    <t>Tracking Error</t>
+  </si>
+  <si>
+    <t>Return Mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>P(Z&lt;z)=16</t>
+  </si>
+  <si>
+    <t>Expected loss</t>
+  </si>
+  <si>
+    <t>P(Z&lt;z)=5</t>
+  </si>
+  <si>
+    <t>make sense</t>
+  </si>
+  <si>
+    <t>all loss &lt;100 is possible</t>
+  </si>
+  <si>
+    <t>P(Z&lt;z)=1</t>
+  </si>
+  <si>
+    <t>make  sense</t>
+  </si>
+  <si>
+    <t>possible to have return &gt;100</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>term2N</t>
+  </si>
+  <si>
+    <t>term2D0</t>
+  </si>
+  <si>
+    <t>Term2D1</t>
+  </si>
+  <si>
+    <t>Term2D2</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>Risk-Free</t>
+  </si>
+  <si>
+    <t>averag</t>
+  </si>
+  <si>
+    <t>Sharpe ratio</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>ExcessFund</t>
+  </si>
+  <si>
+    <t>MarketExcess</t>
+  </si>
+  <si>
+    <t>ExcessDifference</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Treynor</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>term1N</t>
+  </si>
+  <si>
+    <t>Wa</t>
+  </si>
+  <si>
+    <t>Portfolio E(Rp)</t>
+  </si>
+  <si>
+    <t>Portfolio Std</t>
+  </si>
+  <si>
+    <t>Smallest Expected loss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="10">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="188" formatCode="0.00000000%"/>
+    <numFmt numFmtId="191" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -664,8 +1094,34 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF252525"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF252525"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +1132,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F9ED5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -701,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -726,9 +1188,33 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,7 +1556,7 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
@@ -1079,7 +1565,7 @@
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="7">
         <f>B2/C2</f>
         <v>17.66990291262136</v>
@@ -1146,7 +1632,7 @@
         <v>-2.2945504426985831E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>30000</v>
       </c>
@@ -1236,12 +1722,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="P6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>44000000</v>
       </c>
@@ -1311,7 +1797,7 @@
         <v>1376000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="F9" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1819,7 @@
         <v>2449000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1860,7 @@
         <v>7.989836250705816E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0.13229337899999999</v>
       </c>
@@ -1393,7 +1879,7 @@
         <v>8923.4868718334728</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -1407,7 +1893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1910,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1441,7 +1927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1458,7 +1944,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1475,7 +1961,7 @@
         <v>70.166666666666671</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1506,7 +1992,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -1517,7 +2003,7 @@
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1534,7 +2020,7 @@
         <v>53.378031965151479</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1560,7 +2046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1591,7 +2077,7 @@
         <v>1.1971830985915493</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <f>A3+1</f>
         <v>1</v>
@@ -1601,7 +2087,7 @@
         <v>2.477064220183486</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f t="shared" ref="A5:A12" si="0">A4+1</f>
         <v>2</v>
@@ -1620,7 +2106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1640,7 +2126,7 @@
         <v>4.117647058823529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1654,7 +2140,7 @@
         <v>44.630788297107379</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1681,7 +2167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1711,13 +2197,13 @@
         <v>36.000002859173883</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1735,7 +2221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1754,7 +2240,7 @@
         <v>0.20084999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13">
         <v>1.74</v>
       </c>
@@ -1769,7 +2255,7 @@
         <v>0.20885999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -1796,7 +2282,7 @@
         <v>0.1212</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1.06</v>
       </c>
@@ -1831,7 +2317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1.1399999999999999</v>
       </c>
@@ -1867,7 +2353,7 @@
         <v>17.307352941176472</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1.23</v>
       </c>
@@ -1882,7 +2368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1.31</v>
       </c>
@@ -1902,7 +2388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="17">
       <c r="A19">
         <v>1.41</v>
       </c>
@@ -1935,7 +2421,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="17">
       <c r="A20">
         <v>1.46</v>
       </c>
@@ -1975,7 +2461,7 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
     </row>
-    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="17">
       <c r="B21" s="13">
         <f t="shared" si="2"/>
         <v>3.5460992907801449E-2</v>
@@ -2011,7 +2497,7 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
     </row>
-    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="17">
       <c r="C22" s="16">
         <f>C16-C18</f>
         <v>9.7658682457767793E-2</v>
@@ -2044,7 +2530,7 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
     </row>
-    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="17">
       <c r="F23" s="17" t="s">
         <v>84</v>
       </c>
@@ -2073,7 +2559,7 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
     </row>
-    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="17">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2112,7 +2598,7 @@
         <v>15.586423959194699</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="17">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -2147,7 +2633,7 @@
         <v>0.26928880661569538</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="17">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2163,7 +2649,7 @@
         <v>159.25857140590881</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="17">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2202,7 +2688,7 @@
         <v>7.0516566539981023</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="17">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -2235,7 +2721,7 @@
       </c>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="17">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -2251,7 +2737,7 @@
         <v>102.60631336787581</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="17">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -2291,7 +2777,7 @@
         <v>1.5343895008510584</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="17">
       <c r="F31" s="17" t="s">
         <v>92</v>
       </c>
@@ -2320,7 +2806,7 @@
         <v>0.13175146792455045</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="17">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -2341,7 +2827,7 @@
         <v>107.49229458028898</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>38</v>
       </c>
@@ -2356,7 +2842,7 @@
         <v>1.976</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -2371,7 +2857,7 @@
         <v>2.1290293440000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17">
       <c r="F35" s="17" t="s">
         <v>109</v>
       </c>
@@ -2379,7 +2865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="F38" t="s">
         <v>112</v>
       </c>
@@ -2396,7 +2882,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="F39">
         <f>G39*(1+H39)</f>
         <v>5.6740000000000004</v>
@@ -2415,10 +2901,10 @@
         <v>74.329400000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="F41" t="s">
         <v>115</v>
       </c>
@@ -2435,7 +2921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="F42">
         <f>G42*(1+H42)</f>
         <v>7.3530600000000002</v>
@@ -2454,7 +2940,7 @@
         <v>69.265825199999995</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="F44" t="s">
         <v>120</v>
       </c>
@@ -2471,7 +2957,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="F45">
         <f>G45*(1+H45)</f>
         <v>27.532709999999994</v>
@@ -2505,14 +2991,14 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2565,7 +3051,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="17">
       <c r="A2" s="19">
         <v>83.78</v>
       </c>
@@ -2600,7 +3086,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="17">
       <c r="A3" s="19">
         <v>83.74</v>
       </c>
@@ -2667,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="17">
       <c r="A4" s="19">
         <v>83.75</v>
       </c>
@@ -2746,7 +3232,7 @@
         <v>167972</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="17">
       <c r="A5" s="19">
         <v>83.78</v>
       </c>
@@ -2829,7 +3315,7 @@
         <v>112144</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="17">
       <c r="A6" s="19">
         <v>83.77</v>
       </c>
@@ -2909,7 +3395,7 @@
         <v>557524.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="17">
       <c r="A7" s="19">
         <v>83.8</v>
       </c>
@@ -2988,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="17">
       <c r="A8" s="19">
         <v>83.81</v>
       </c>
@@ -3067,7 +3553,7 @@
         <v>821876.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="17">
       <c r="A9" s="19">
         <v>83.85</v>
       </c>
@@ -3119,7 +3605,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="17">
       <c r="A10" s="19">
         <v>83.84</v>
       </c>
@@ -3171,7 +3657,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="21"/>
     </row>
-    <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="17">
       <c r="A11" s="19">
         <v>83.86</v>
       </c>
@@ -3223,7 +3709,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="21"/>
     </row>
-    <row r="12" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="17">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -3274,7 +3760,7 @@
         <v>-377146.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="17">
       <c r="J13" s="19" t="s">
         <v>157</v>
       </c>
@@ -3295,7 +3781,7 @@
         <v>614.29666666666662</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="17">
       <c r="B15" s="19" t="s">
         <v>136</v>
       </c>
@@ -3306,7 +3792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="17">
       <c r="A16" s="19" t="s">
         <v>135</v>
       </c>
@@ -3326,7 +3812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="17">
       <c r="A17" s="19" t="s">
         <v>136</v>
       </c>
@@ -3334,7 +3820,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="17">
       <c r="A18" s="19" t="s">
         <v>138</v>
       </c>
@@ -3363,7 +3849,7 @@
         <v>1.0327506781723943</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="17">
       <c r="A19" s="19" t="s">
         <v>139</v>
       </c>
@@ -3392,7 +3878,7 @@
         <v>1.2110246287775852</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="17">
       <c r="A20" s="19" t="s">
         <v>140</v>
       </c>
@@ -3424,7 +3910,7 @@
         <v>-377146.5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="17">
       <c r="A21" s="19" t="s">
         <v>141</v>
       </c>
@@ -3453,7 +3939,7 @@
         <v>0.69032710599557368</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="17">
       <c r="A22" s="19" t="s">
         <v>142</v>
       </c>
@@ -3482,14 +3968,14 @@
         <v>1.1508689903633214</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="17">
       <c r="G25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="17">
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -3500,7 +3986,7 @@
       </c>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="17">
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
@@ -3518,7 +4004,7 @@
       </c>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="17">
       <c r="G28" s="19"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -3537,7 +4023,7 @@
       </c>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="17">
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -3559,7 +4045,7 @@
       </c>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="17">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="E30" s="19"/>
@@ -3582,7 +4068,7 @@
       </c>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="17">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -3609,7 +4095,7 @@
       </c>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="17">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -3631,7 +4117,7 @@
       </c>
       <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="17">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -3656,7 +4142,7 @@
       </c>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="17">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -3681,7 +4167,7 @@
       </c>
       <c r="Q34" s="19"/>
     </row>
-    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="17">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -3706,7 +4192,7 @@
       </c>
       <c r="Q35" s="19"/>
     </row>
-    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="17">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -3716,18 +4202,18 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="J36" s="38"/>
+    </row>
+    <row r="37" spans="1:17" ht="17">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="J37" s="25"/>
-    </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:17" ht="17">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -3736,9 +4222,9 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:17" ht="17">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -3747,9 +4233,9 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="25"/>
-    </row>
-    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="J39" s="39"/>
+    </row>
+    <row r="40" spans="1:17" ht="17">
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3764,7 +4250,7 @@
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
     </row>
-    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="17">
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3773,7 +4259,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="17">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3787,7 +4273,7 @@
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
     </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="17">
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -3801,7 +4287,7 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
     </row>
-    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="17">
       <c r="B44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
@@ -3811,7 +4297,7 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
     </row>
-    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="17">
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -3820,11 +4306,11 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="25"/>
+    <row r="46" spans="1:17">
+      <c r="G46" s="38"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="G47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3839,24 +4325,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E291FD8-D1D6-734F-B85B-13BCC95B1DAC}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="9" max="9" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -3899,419 +4385,390 @@
       <c r="P1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>3.6588024151113979E-2</v>
       </c>
       <c r="B2" s="8">
-        <f>3.5%/2</f>
-        <v>1.7500000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C2" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="9">
         <f>(D2)/(1+B2)^C2</f>
-        <v>70.682457716686969</v>
+        <v>308.3186679734203</v>
       </c>
       <c r="F2" s="14">
         <f>1-(1+B2)^-C2</f>
-        <v>0.29317542283313036</v>
+        <v>0.69168133202657966</v>
       </c>
       <c r="G2" s="12">
         <f>(A2*D2)*(F2/B2)</f>
-        <v>68.686813349476253</v>
+        <v>632.68133202657964</v>
       </c>
       <c r="H2" s="9">
         <f>E2+G2</f>
-        <v>139.36927106616321</v>
+        <v>941</v>
       </c>
       <c r="I2" s="13">
         <v>0.3</v>
       </c>
       <c r="J2" s="13">
         <f>B2*(1-I2)</f>
-        <v>1.225E-2</v>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="K2" s="13">
         <f>J2*2</f>
-        <v>2.4500000000000001E-2</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="L2" s="4">
         <f>2*(A2*D2)/H2</f>
-        <v>5.8836499159898664E-2</v>
+        <v>7.7764132095885175E-2</v>
       </c>
       <c r="N2" s="4">
         <f>B2*2</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="O2" s="5">
         <f>C2/2</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P2" s="13">
         <f>L2/2</f>
-        <v>2.9418249579949332E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.8882066047942587E-2</v>
+      </c>
+      <c r="Q2" s="13">
+        <f>2*A2</f>
+        <v>7.3176048302227958E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="8">
-        <v>0.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="B3" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3540086083013634E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>18.55</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>1000</v>
       </c>
       <c r="E3" s="12">
         <f>(D3)/(1+B3)^C3</f>
-        <v>537.82874012640752</v>
+        <v>453.04796923092005</v>
       </c>
       <c r="F3" s="14">
         <f>1-(1+B3)^-C3</f>
-        <v>0.46217125987359242</v>
+        <v>0.54695203076907994</v>
       </c>
       <c r="G3" s="12">
         <f>(A3*D3)*(F3/B3)</f>
-        <v>543.73089396893215</v>
+        <v>554.45203688868412</v>
       </c>
       <c r="H3" s="9">
         <f>E3+G3</f>
-        <v>1081.5596340953398</v>
+        <v>1007.5000061196042</v>
       </c>
       <c r="I3" s="13">
         <v>0.3</v>
       </c>
       <c r="J3" s="13">
         <f>B3*(1-I3)</f>
-        <v>2.3800000000000002E-2</v>
+        <v>2.3478060258109543E-2</v>
       </c>
       <c r="K3" s="13">
         <f>J3*2</f>
-        <v>4.7600000000000003E-2</v>
+        <v>4.6956120516219085E-2</v>
       </c>
       <c r="L3" s="4">
         <f>2*(A3*D3)/H3</f>
-        <v>7.3967257540001705E-2</v>
+        <v>6.7493796116093976E-2</v>
       </c>
       <c r="N3" s="4">
         <f>B3*2</f>
-        <v>6.8000000000000005E-2</v>
+        <v>6.7080172166027269E-2</v>
       </c>
       <c r="O3" s="5">
         <f>C3/2</f>
-        <v>9.2750000000000004</v>
+        <v>12</v>
       </c>
       <c r="P3" s="13">
         <f>L3/2</f>
-        <v>3.6983628770000852E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="M4" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.3746898058046988E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19">
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="8">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="B5" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="C5" s="3">
-        <f>5*2</f>
-        <v>10</v>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>9.1996160672314868</v>
       </c>
       <c r="D5" s="3">
         <v>1000</v>
       </c>
-      <c r="E5" s="12">
-        <f>(D5)/(1+B5)^C5</f>
-        <v>675.56416882579856</v>
-      </c>
-      <c r="F5" s="14">
-        <f>1-(1+B5)^-C5</f>
-        <v>0.32443583117420149</v>
+      <c r="E5" s="8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <f>A5*D5</f>
+        <v>80</v>
       </c>
       <c r="G5" s="12">
-        <f>(A5*D5)*(F5/B5)</f>
-        <v>243.32687338065111</v>
+        <f>F5/E5</f>
+        <v>1081.081081081081</v>
       </c>
       <c r="H5" s="9">
-        <f>E5+G5</f>
-        <v>918.8910422064497</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="13">
-        <f>B5*(1-I5)</f>
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="K5" s="13">
-        <f>J5*2</f>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="L5" s="13">
-        <f>(2*A5*D5)/H5</f>
-        <v>6.5296098497083441E-2</v>
-      </c>
-      <c r="M5" s="13">
-        <f>(H5-H$6)/H$6</f>
-        <v>-8.1108957152952021E-2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>177</v>
-      </c>
-      <c r="R5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <f>6%/2</f>
-        <v>0.03</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3.0000000081726395E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <f>5*2</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="12">
-        <f>(D6)/(1+B6)^C6</f>
-        <v>744.09391430631604</v>
-      </c>
-      <c r="F6" s="14">
-        <f>1-(1+B6)^-C6</f>
-        <v>0.25590608569368389</v>
-      </c>
-      <c r="G6" s="12">
-        <f>(A6*D6)*(F6/B6)</f>
-        <v>255.90608499654118</v>
-      </c>
-      <c r="H6" s="9">
-        <f>E6+G6</f>
-        <v>999.99999930285719</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="J6" s="13">
-        <f>B6*(1-I6)</f>
-        <v>2.1000000057208475E-2</v>
-      </c>
-      <c r="K6" s="13">
-        <f>J6*2</f>
-        <v>4.2000000114416951E-2</v>
-      </c>
-      <c r="L6" s="13">
-        <f>(2*A6*D6)/H6</f>
-        <v>6.0000000041828566E-2</v>
-      </c>
-      <c r="M6" s="13">
-        <f>(H6-H$6)/H$6</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1000000</v>
-      </c>
-      <c r="P6" s="13">
-        <v>1.15E-2</v>
-      </c>
-      <c r="Q6">
-        <v>56</v>
-      </c>
-      <c r="R6" s="12">
-        <f>(1-P6*(Q6/360))*O6</f>
-        <v>998211.11111111112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <f>D5/(1+B5/2)^(C5*2)</f>
+        <v>540.54672031411417</v>
+      </c>
+      <c r="I5" s="12">
+        <f>(1/(1+(B5/2)))^(C5*2)</f>
+        <v>0.54054672031411377</v>
+      </c>
+      <c r="J5" s="12">
+        <f>((1-I5)/(B5/2))*(A5*D5)/2</f>
+        <v>540.53327021868972</v>
+      </c>
+      <c r="K5" s="12">
+        <f>H5+J5</f>
+        <v>1081.079990532804</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" ht="19">
+      <c r="M6" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="8">
-        <f>6%/2</f>
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B7" s="8">
-        <f>4%/2</f>
-        <v>0.02</v>
+        <f>7.4%/2</f>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="C7" s="3">
-        <f>5*2</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>1000</v>
       </c>
       <c r="E7" s="12">
         <f>(D7)/(1+B7)^C7</f>
-        <v>820.34829987515525</v>
+        <v>601.30859352421282</v>
       </c>
       <c r="F7" s="14">
         <f>1-(1+B7)^-C7</f>
-        <v>0.17965170012484466</v>
+        <v>0.39869140647578716</v>
       </c>
       <c r="G7" s="12">
         <f>(A7*D7)*(F7/B7)</f>
-        <v>269.47755018726701</v>
+        <v>344.8141893844645</v>
       </c>
       <c r="H7" s="9">
         <f>E7+G7</f>
-        <v>1089.8258500624222</v>
+        <v>946.12278290867732</v>
       </c>
       <c r="I7" s="13">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="J7" s="13">
         <f>B7*(1-I7)</f>
-        <v>-6.000000000000001E-3</v>
+        <v>2.5900000000000003E-2</v>
       </c>
       <c r="K7" s="13">
         <f>J7*2</f>
-        <v>-1.2000000000000002E-2</v>
+        <v>5.1800000000000006E-2</v>
       </c>
       <c r="L7" s="13">
         <f>(2*A7*D7)/H7</f>
-        <v>5.505466767609097E-2</v>
+        <v>6.7644497264133074E-2</v>
       </c>
       <c r="M7" s="13">
-        <f>(H7-H$6)/H$6</f>
-        <v>8.9825850822186457E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="M8" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <f>(H7-H$8)/H$8</f>
+        <v>-5.3877217091322573E-2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>177</v>
+      </c>
+      <c r="R7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="12">
+        <f>(D8)/(1+B8)^C8</f>
+        <v>643.40471314489025</v>
+      </c>
+      <c r="F8" s="14">
+        <f>1-(1+B8)^-C8</f>
+        <v>0.35659528685510966</v>
+      </c>
+      <c r="G8" s="12">
+        <f>(A8*D8)*(F8/B8)</f>
+        <v>356.59528685510963</v>
+      </c>
+      <c r="H8" s="9">
+        <f>E8+G8</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="13">
+        <f>B8*(1-I8)</f>
+        <v>2.24E-2</v>
+      </c>
+      <c r="K8" s="13">
+        <f>J8*2</f>
+        <v>4.48E-2</v>
+      </c>
+      <c r="L8" s="13">
+        <f>(2*A8*D8)/H8</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M8" s="13">
+        <f>(H8-H$8)/H$8</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1000000</v>
+      </c>
+      <c r="P8" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q8">
+        <v>64</v>
+      </c>
+      <c r="R8" s="12">
+        <f>(1-P8*(Q8/360))*O8</f>
+        <v>996800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="8">
-        <f>6%/2</f>
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B9" s="8">
-        <v>0.04</v>
+        <f>5.4%/2</f>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="C9" s="3">
-        <f>15*2</f>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
         <v>1000</v>
       </c>
       <c r="E9" s="12">
         <f>(D9)/(1+B9)^C9</f>
-        <v>308.3186679734203</v>
+        <v>688.67416265183113</v>
       </c>
       <c r="F9" s="14">
         <f>1-(1+B9)^-C9</f>
-        <v>0.69168133202657966</v>
+        <v>0.31132583734816888</v>
       </c>
       <c r="G9" s="12">
         <f>(A9*D9)*(F9/B9)</f>
-        <v>518.76099901993473</v>
+        <v>368.97877019042232</v>
       </c>
       <c r="H9" s="9">
         <f>E9+G9</f>
-        <v>827.07966699335498</v>
+        <v>1057.6529328422534</v>
       </c>
       <c r="I9" s="13">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="J9" s="13">
         <f>B9*(1-I9)</f>
-        <v>2.7999999999999997E-2</v>
+        <v>-8.1000000000000013E-3</v>
       </c>
       <c r="K9" s="13">
         <f>J9*2</f>
-        <v>5.5999999999999994E-2</v>
+        <v>-1.6200000000000003E-2</v>
       </c>
       <c r="L9" s="13">
         <f>(2*A9*D9)/H9</f>
-        <v>7.2544402183305101E-2</v>
+        <v>6.0511343572802682E-2</v>
       </c>
       <c r="M9" s="13">
-        <f>(H9-H$10)/H$10</f>
-        <v>-0.17292033300664503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <f>6%/2</f>
-        <v>0.03</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="C10" s="3">
-        <f>15*2</f>
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="12">
-        <f>(D10)/(1+B10)^C10</f>
-        <v>411.9867595159069</v>
-      </c>
-      <c r="F10" s="14">
-        <f>1-(1+B10)^-C10</f>
-        <v>0.58801324048409309</v>
-      </c>
-      <c r="G10" s="12">
-        <f>(A10*D10)*(F10/B10)</f>
-        <v>588.0132404840931</v>
-      </c>
-      <c r="H10" s="9">
-        <f>E10+G10</f>
-        <v>1000</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="13">
-        <f>B10*(1-I10)</f>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="K10" s="13">
-        <f>J10*2</f>
-        <v>4.1999999999999996E-2</v>
-      </c>
-      <c r="L10" s="13">
-        <f>(2*A10*D10)/H10</f>
-        <v>0.06</v>
-      </c>
-      <c r="M10" s="13">
-        <f>(H10-H$10)/H$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <f>(H9-H$8)/H$8</f>
+        <v>5.7652932842253569E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="51">
+      <c r="M10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="8">
-        <f>6%/2</f>
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B11" s="8">
-        <v>0.02</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C11" s="3">
         <f>15*2</f>
@@ -4322,44 +4779,1791 @@
       </c>
       <c r="E11" s="12">
         <f>(D11)/(1+B11)^C11</f>
-        <v>552.07088897991196</v>
+        <v>336.23065631059387</v>
       </c>
       <c r="F11" s="14">
         <f>1-(1+B11)^-C11</f>
-        <v>0.44792911102008803</v>
+        <v>0.6637693436894061</v>
       </c>
       <c r="G11" s="12">
         <f>(A11*D11)*(F11/B11)</f>
-        <v>671.89366653013201</v>
+        <v>574.07078373137824</v>
       </c>
       <c r="H11" s="9">
         <f>E11+G11</f>
-        <v>1223.964555510044</v>
+        <v>910.30144004197211</v>
       </c>
       <c r="I11" s="13">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="J11" s="13">
         <f>B11*(1-I11)</f>
-        <v>-6.000000000000001E-3</v>
+        <v>2.5899999999999996E-2</v>
       </c>
       <c r="K11" s="13">
         <f>J11*2</f>
-        <v>-1.2000000000000002E-2</v>
+        <v>5.1799999999999992E-2</v>
       </c>
       <c r="L11" s="13">
         <f>(2*A11*D11)/H11</f>
-        <v>4.9021027389961565E-2</v>
+        <v>7.0306381144524047E-2</v>
       </c>
       <c r="M11" s="13">
-        <f>(H11-H$10)/H$10</f>
-        <v>0.22396455551004396</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J20">
+        <f>(H11-H$12)/H$12</f>
+        <v>-8.969855995802789E-2</v>
+      </c>
+      <c r="O11" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P11">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="29">
+        <f>((1+O11)^(1/(365/P11))-1)/(P11/365)</f>
+        <v>4.2362054283022026E-2</v>
+      </c>
+      <c r="R11" s="29">
+        <f>(360*Q11)/(365+P11*Q11)</f>
+        <v>4.1269251405978077E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="12">
+        <f>(D12)/(1+B12)^C12</f>
+        <v>388.69511381626944</v>
+      </c>
+      <c r="F12" s="14">
+        <f>1-(1+B12)^-C12</f>
+        <v>0.61130488618373058</v>
+      </c>
+      <c r="G12" s="12">
+        <f>(A12*D12)*(F12/B12)</f>
+        <v>611.30488618373056</v>
+      </c>
+      <c r="H12" s="9">
+        <f>E12+G12</f>
+        <v>1000</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="13">
+        <f>B12*(1-I12)</f>
+        <v>2.24E-2</v>
+      </c>
+      <c r="K12" s="13">
+        <f>J12*2</f>
+        <v>4.48E-2</v>
+      </c>
+      <c r="L12" s="13">
+        <f>(2*A12*D12)/H12</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <f>(H12-H$12)/H$12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>188</v>
+      </c>
+      <c r="R12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="12">
+        <f>(D13)/(1+B13)^C13</f>
+        <v>449.66252213051968</v>
+      </c>
+      <c r="F13" s="14">
+        <f>1-(1+B13)^-C13</f>
+        <v>0.55033747786948028</v>
+      </c>
+      <c r="G13" s="12">
+        <f>(A13*D13)*(F13/B13)</f>
+        <v>652.25182562308771</v>
+      </c>
+      <c r="H13" s="9">
+        <f>E13+G13</f>
+        <v>1101.9143477536074</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="J13" s="13">
+        <f>B13*(1-I13)</f>
+        <v>-8.1000000000000013E-3</v>
+      </c>
+      <c r="K13" s="13">
+        <f>J13*2</f>
+        <v>-1.6200000000000003E-2</v>
+      </c>
+      <c r="L13" s="13">
+        <f>(2*A13*D13)/H13</f>
+        <v>5.8080739333753247E-2</v>
+      </c>
+      <c r="M13" s="13">
+        <f>(H13-H$12)/H$12</f>
+        <v>0.10191434775360744</v>
+      </c>
+      <c r="O13" s="13">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f>(1+O13/P13)^12</f>
+        <v>1.0506386171982436</v>
+      </c>
+      <c r="R13" s="4">
+        <f>Q13-1</f>
+        <v>5.0638617198243585E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="N21">
+        <f>3.56/2</f>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="J22">
         <f>1.08*D3</f>
         <v>1080</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="G24">
+        <v>1.0075000000000001</v>
+      </c>
+      <c r="H24">
+        <f>G24*D3</f>
+        <v>1007.5000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>1.8</v>
+      </c>
+      <c r="G25">
+        <f>E25-F25</f>
+        <v>13.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9027EFE2-A12B-8745-B6CF-E9BCD0A23359}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17">
+      <c r="A1" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17">
+      <c r="A2" s="40"/>
+      <c r="B2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SUM(D3:D5)</f>
+        <v>7.2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17">
+      <c r="A3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-4.5</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>-1.8</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="19">
+        <v>-15</v>
+      </c>
+      <c r="J3" s="19">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <f>I$5*I3+J$5*J3</f>
+        <v>-4.8</v>
+      </c>
+      <c r="L3" s="19">
+        <f>H3*K3</f>
+        <v>-2.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17">
+      <c r="A4" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="19">
+        <v>26</v>
+      </c>
+      <c r="J4" s="19">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>I$5*I4+J$5*J4</f>
+        <v>20</v>
+      </c>
+      <c r="L4" s="19">
+        <f>H4*K4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17">
+      <c r="A5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="5">
+        <f>SUM(L3:L4)</f>
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17">
+      <c r="B7" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17">
+      <c r="A8" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.17</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8" s="9">
+        <f>B$11*B8+D$11*D8</f>
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L8" s="14">
+        <f>I8+J8*K8</f>
+        <v>9.9333333333333343E-2</v>
+      </c>
+      <c r="M8" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="N8" s="4">
+        <f>(H8-M8*K8)/(1-K8)</f>
+        <v>0.13444444444444445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17">
+      <c r="A9" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="33">
+        <v>0.47</v>
+      </c>
+      <c r="C9">
+        <f>B9^2*(B11^2)</f>
+        <v>8.8360000000000018E-3</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.49</v>
+      </c>
+      <c r="E9">
+        <f>D9^2*(D11^2)</f>
+        <v>0.15366400000000002</v>
+      </c>
+      <c r="F9">
+        <f>2*B11*D11*B9*D9*C10+C9+E9</f>
+        <v>0.18608272000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17">
+      <c r="A10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SQRT(F9)</f>
+        <v>0.43137306360040611</v>
+      </c>
+      <c r="H10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O10" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17">
+      <c r="A11" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <f>1-B11</f>
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="32">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K11" s="14">
+        <f>J11-I11</f>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="L11" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="M11" s="24">
+        <f>I11+K11*L11</f>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="13">
+        <f>N11/H11</f>
+        <v>2.2857142857142857E-2</v>
+      </c>
+      <c r="P11" s="24">
+        <f>M11-O11</f>
+        <v>8.4942857142857153E-2</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>H11*(1+P11)</f>
+        <v>37.972999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13" t="s">
+        <v>239</v>
+      </c>
+      <c r="N13" t="s">
+        <v>240</v>
+      </c>
+      <c r="O13" t="s">
+        <v>241</v>
+      </c>
+      <c r="P13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="J14" s="13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L14" s="15">
+        <f>AVERAGE(I14:J14)</f>
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.91935483870967749</v>
+      </c>
+      <c r="N14" s="16">
+        <f>M14*I14+J14*(1-M14)</f>
+        <v>0.12250000000000001</v>
+      </c>
+      <c r="O14" s="9">
+        <f>1-M14</f>
+        <v>8.0645161290322509E-2</v>
+      </c>
+      <c r="P14" s="37">
+        <f>M14*K14+O14*0</f>
+        <v>1.0112903225806453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="14">
+        <f>B15+C15*(D15-B15)</f>
+        <v>0.10590000000000002</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(F15-E15&lt;0,"Overvalue","Undervalue")</f>
+        <v>Overvalue</v>
+      </c>
+      <c r="I15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" t="s">
+        <v>245</v>
+      </c>
+      <c r="P15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="13">
+        <f>B15</f>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="13">
+        <f>D15</f>
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="14">
+        <f>B16+C16*(D16-B16)</f>
+        <v>8.2300000000000012E-2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.105</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(F16-E16&lt;0,"Overvalue","Undervalue")</f>
+        <v>Undervalue</v>
+      </c>
+      <c r="I16">
+        <v>1.32</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K16">
+        <f>J16*K14+(1-J16)*0</f>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="L16" s="15">
+        <f>1-J16</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="N16">
+        <f>O16*K14+(1-O16)*0</f>
+        <v>1.32</v>
+      </c>
+      <c r="O16">
+        <v>1.2</v>
+      </c>
+      <c r="P16">
+        <f>1-O16</f>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="17">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="4:11" ht="17">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="4:11" ht="17">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="4:11" ht="17">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="4:11" ht="17">
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="4:11" ht="17">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="4:11" ht="17">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="4:11" ht="17">
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="4:11" ht="17">
+      <c r="G28" s="40"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="4:11" ht="17">
+      <c r="G29" s="40"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="4:11" ht="17">
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="4:11" ht="17">
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="4:11" ht="17">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E0B871-8728-E040-856B-E074665CC46D}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17">
+      <c r="A2" s="33">
+        <v>0.26</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <f>A2*SQRT(B2/12)</f>
+        <v>0.16782927833565472</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="34">
+        <v>14.5</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="34">
+        <v>36</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="34">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17">
+      <c r="E3" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="34">
+        <v>13.5</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="34">
+        <v>31</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="34">
+        <v>9.1</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="34">
+        <v>21</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17">
+      <c r="A5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>B5/A5</f>
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="34">
+        <v>26</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17">
+      <c r="E6" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="13">
+        <f>F2/100-(F6/100+(F5/100-F6/100)*J2)</f>
+        <v>6.2000000000000111E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K7" s="43">
+        <f>I7/G7</f>
+        <v>4.6616541353383542E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9">
+        <v>-0.99399999999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K9" t="s">
+        <v>282</v>
+      </c>
+      <c r="L9" t="s">
+        <v>283</v>
+      </c>
+      <c r="M9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="15">
+        <f>A8+B9*B8</f>
+        <v>-0.19413999999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0.26</v>
+      </c>
+      <c r="H10">
+        <f>(F10-H$12)*(G$11^2)</f>
+        <v>1.1328800000000003E-2</v>
+      </c>
+      <c r="I10">
+        <f>(F11-H$12)*G$10*G$11*F$12</f>
+        <v>3.9603200000000007E-3</v>
+      </c>
+      <c r="J10">
+        <f>H10</f>
+        <v>1.1328800000000003E-2</v>
+      </c>
+      <c r="K10">
+        <f>(F11-H$12)*(G$10)^2</f>
+        <v>8.6528000000000004E-3</v>
+      </c>
+      <c r="L10">
+        <f>(F10-H$12+F$11-H$12)*(G$10*G$11*F12)</f>
+        <v>6.9924399999999999E-3</v>
+      </c>
+      <c r="M10" s="37">
+        <f>(H10-I10)/(J10+K10-L10)</f>
+        <v>0.56727917740639122</v>
+      </c>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0.34</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="37">
+        <f>1-M10</f>
+        <v>0.43272082259360878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12">
+        <v>-1.645</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="44">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" s="37">
+        <f>M$10*F10+M$11*F11</f>
+        <v>0.14298162467780826</v>
+      </c>
+      <c r="K12">
+        <f>(M$10^2)*(G$10^2)</f>
+        <v>2.175406296203574E-2</v>
+      </c>
+      <c r="L12">
+        <f>(M$11^2)*(G$11^2)</f>
+        <v>2.1645789071383943E-2</v>
+      </c>
+      <c r="M12">
+        <f>2*M10*M11*G10*G11*F12</f>
+        <v>1.5189900940351697E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="15">
+        <f>A11+B12*B11</f>
+        <v>-0.64270000000000005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="26">
+        <v>-1.645</v>
+      </c>
+      <c r="I13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13">
+        <f>SQRT(K12+L12+M12)</f>
+        <v>0.24205320277528117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="43">
+        <f>(J12-H$12)/J$13</f>
+        <v>0.45850095518398098</v>
+      </c>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K14" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="4">
+        <f>J12+J13*H13</f>
+        <v>-0.25519589388752928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="15">
+        <f>A14+B15*B14</f>
+        <v>1.1334400000000002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J16" t="s">
+        <v>290</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17">
+      <c r="H17" s="19">
+        <v>2011</v>
+      </c>
+      <c r="I17" s="19">
+        <v>-15.13</v>
+      </c>
+      <c r="J17" s="19">
+        <f>I17-M17</f>
+        <v>-17.130000000000003</v>
+      </c>
+      <c r="K17" s="19">
+        <v>-25.5</v>
+      </c>
+      <c r="L17" s="19">
+        <f>K17-M17</f>
+        <v>-27.5</v>
+      </c>
+      <c r="M17" s="19">
+        <v>2</v>
+      </c>
+      <c r="N17" s="19">
+        <f>J17-L17</f>
+        <v>10.369999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17">
+      <c r="H18" s="19">
+        <v>2012</v>
+      </c>
+      <c r="I18" s="19">
+        <v>25.1</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" ref="J18:J21" si="0">I18-M18</f>
+        <v>21.1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" ref="L18:L21" si="1">K18-M18</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="M18" s="19">
+        <v>4</v>
+      </c>
+      <c r="N18" s="19">
+        <f t="shared" ref="N18:N21" si="2">J18-L18</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17">
+      <c r="A19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2013</v>
+      </c>
+      <c r="I19" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="K19" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17">
+      <c r="A20" s="19">
+        <v>2011</v>
+      </c>
+      <c r="B20" s="19">
+        <v>-15.13</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="19">
+        <v>-25.5</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2014</v>
+      </c>
+      <c r="I20" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="K20" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="L20" s="19">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="M20" s="19">
+        <v>4</v>
+      </c>
+      <c r="N20" s="19">
+        <f t="shared" si="2"/>
+        <v>-1.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17">
+      <c r="A21" s="19">
+        <v>2012</v>
+      </c>
+      <c r="B21" s="19">
+        <v>25.1</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19">
+        <v>4</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19">
+        <v>2015</v>
+      </c>
+      <c r="I21" s="19">
+        <v>-1.26</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="0"/>
+        <v>-4.26</v>
+      </c>
+      <c r="K21" s="19">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" si="1"/>
+        <v>-5.2</v>
+      </c>
+      <c r="M21" s="19">
+        <v>3</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="2"/>
+        <v>0.94000000000000039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17">
+      <c r="A22" s="19">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(I17:I21)</f>
+        <v>5.5219999999999994</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(K17:K21)</f>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGE(M17:M21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17">
+      <c r="A23" s="19">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19">
+        <v>4</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23">
+        <f>STDEV(I17:I21)</f>
+        <v>15.043786757329421</v>
+      </c>
+      <c r="K23">
+        <f>STDEV(K17:K21)</f>
+        <v>17.133096626121034</v>
+      </c>
+      <c r="N23" s="12">
+        <f>STDEV(N17:N21)</f>
+        <v>4.4767421189968033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17">
+      <c r="A24" s="19">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="19">
+        <v>-1.26</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17">
+      <c r="A25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B20:B24)</f>
+        <v>5.5219999999999994</v>
+      </c>
+      <c r="F25" s="45">
+        <f>AVERAGE(F20:F24)</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="I25">
+        <f>I24*(I23/K23)</f>
+        <v>0.83415145150550607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17">
+      <c r="A26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="12">
+        <f>STDEV(B20:B24)</f>
+        <v>15.043786757329421</v>
+      </c>
+      <c r="D26">
+        <f>STDEV(D20:D24)</f>
+        <v>17.133096626121034</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="I26" s="4">
+        <f>I22/100-(M22/100+(K22/100-M22/100)*I25)</f>
+        <v>3.489615683746386E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="43">
+        <f>(B25/100-F25/100)/(B26/100)</f>
+        <v>0.16764396097088161</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27" s="46">
+        <f>I26/N23</f>
+        <v>7.7949892823587002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="12">
+        <f>(B26/D26)*B28</f>
+        <v>0.85171253469509567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17">
+      <c r="A30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="43">
+        <f>(B25/100-F25/100)/B29</f>
+        <v>2.9610929712368849E-2</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17">
+      <c r="H31" s="19">
+        <v>2011</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-18.2</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" s="19">
+        <v>-35.5</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" s="19">
+        <v>2</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17">
+      <c r="H32" s="19">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="19">
+        <v>25.1</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19">
+        <v>20.6</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19">
+        <v>5</v>
+      </c>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="8:14" ht="17">
+      <c r="H33" s="19">
+        <v>2013</v>
+      </c>
+      <c r="I33" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19">
+        <v>12.7</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19">
+        <v>2</v>
+      </c>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="8:14" ht="17">
+      <c r="H34" s="19">
+        <v>2014</v>
+      </c>
+      <c r="I34" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19">
+        <v>6</v>
+      </c>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="8:14" ht="17">
+      <c r="H35" s="19">
+        <v>2015</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-1.86</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19">
+        <v>-4.2</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19">
+        <v>3</v>
+      </c>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="8:14">
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(I31:I35)</f>
+        <v>5.0680000000000005</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE(K31:K35)</f>
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="M36">
+        <f>AVERAGE(M31:M35)</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14">
+      <c r="H37" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37">
+        <f>STDEV(I31:I35)</f>
+        <v>16.315456475379413</v>
+      </c>
+      <c r="K37">
+        <f>STDEV(K31:K35)</f>
+        <v>21.984653738460381</v>
+      </c>
+      <c r="M37">
+        <f>STDEV(M31:M35)</f>
+        <v>1.8165902124584952</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" ht="17">
+      <c r="H38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14">
+      <c r="H39" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="12">
+        <f>I38*(I37/K37)</f>
+        <v>0.71986545566700155</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14">
+      <c r="H40" t="s">
+        <v>295</v>
+      </c>
+      <c r="I40" s="5">
+        <f>(I36/100-M36/100)/(I37/100)</f>
+        <v>8.9976029920784781E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:14">
+      <c r="H41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I41" s="43">
+        <f>(I36/100-M36/100)/I39</f>
+        <v>2.0392699614121691E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Purdue/Purdue.xlsx
+++ b/Purdue/Purdue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hain2/Desktop/GitHub/Notes/RemNB/Purdue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755B73A-7F91-8C4C-BFBD-7DEA8EB104DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719534B6-1B06-D542-AF6B-87878BE4669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="760" windowWidth="17080" windowHeight="21580" activeTab="5" xr2:uid="{AFEB53E5-A291-E14A-921A-D77FACADB536}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17080" windowHeight="21580" activeTab="5" xr2:uid="{AFEB53E5-A291-E14A-921A-D77FACADB536}"/>
   </bookViews>
   <sheets>
     <sheet name="MT422U3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="MT422U7" sheetId="5" r:id="rId5"/>
     <sheet name="MT422U8" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="306">
   <si>
     <t>Nav ?</t>
   </si>
@@ -886,9 +886,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1012,9 +1009,6 @@
     <t>term1N</t>
   </si>
   <si>
-    <t>Wa</t>
-  </si>
-  <si>
     <t>Portfolio E(Rp)</t>
   </si>
   <si>
@@ -1022,6 +1016,27 @@
   </si>
   <si>
     <t>Smallest Expected loss</t>
+  </si>
+  <si>
+    <t>P(Z&lt;z)=2.5</t>
+  </si>
+  <si>
+    <t>&lt;--Monthly</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>R_square</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>IR ratio</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1052,10 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="188" formatCode="0.00000000%"/>
-    <numFmt numFmtId="191" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000000%"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1120,6 +1135,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF252525"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1141,7 +1169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1158,12 +1186,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFCDD4E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1206,15 +1323,30 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4202,7 +4334,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="38"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:17" ht="17">
       <c r="B37" s="19"/>
@@ -4211,7 +4343,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="J37" s="39"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:17" ht="17">
       <c r="B38" s="19"/>
@@ -4222,7 +4354,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="38"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:17" ht="17">
       <c r="B39" s="19"/>
@@ -4233,7 +4365,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="39"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:17" ht="17">
       <c r="B40" s="19"/>
@@ -4307,10 +4439,10 @@
       <c r="M45" s="19"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="G46" s="38"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="G47" s="39"/>
+      <c r="G47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5014,7 +5146,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>191</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -5030,7 +5162,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="17">
-      <c r="A2" s="40"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="19" t="s">
         <v>193</v>
       </c>
@@ -5568,12 +5700,12 @@
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="4:11" ht="17">
-      <c r="G28" s="40"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="4:11" ht="17">
-      <c r="G29" s="40"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
@@ -5610,10 +5742,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E0B871-8728-E040-856B-E074665CC46D}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5621,7 +5753,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -5641,28 +5773,28 @@
       <c r="E1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="38" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17">
       <c r="A2" s="33">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="B2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
         <f>A2*SQRT(B2/12)</f>
-        <v>0.16782927833565472</v>
-      </c>
-      <c r="E2" s="41" t="s">
+        <v>0.24248711305964279</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>254</v>
       </c>
       <c r="F2" s="34">
@@ -5678,8 +5810,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="17">
-      <c r="E3" s="41" t="s">
-        <v>256</v>
+      <c r="E3" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="F3" s="34">
         <v>13.5</v>
@@ -5695,16 +5827,16 @@
     </row>
     <row r="4" spans="1:14" ht="17">
       <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
         <v>262</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>257</v>
+      <c r="E4" s="38" t="s">
+        <v>256</v>
       </c>
       <c r="F4" s="34">
         <v>9.1</v>
@@ -5720,17 +5852,17 @@
     </row>
     <row r="5" spans="1:14" ht="17">
       <c r="A5" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B5" s="8">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C5" s="4">
         <f>B5/A5</f>
-        <v>0.08</v>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" s="34">
         <v>10.7</v>
@@ -5746,7 +5878,7 @@
     </row>
     <row r="6" spans="1:14" ht="17">
       <c r="E6" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="34">
         <v>5.4</v>
@@ -5762,41 +5894,41 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
         <v>265</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>266</v>
       </c>
-      <c r="C7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>260</v>
+      <c r="E7" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G7" s="8">
         <v>0.13300000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I7" s="13">
         <f>F2/100-(F6/100+(F5/100-F6/100)*J2)</f>
         <v>6.2000000000000111E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="43">
+        <v>261</v>
+      </c>
+      <c r="K7" s="40">
         <f>I7/G7</f>
         <v>4.6616541353383542E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8">
-        <v>0.114</v>
+        <v>0.18</v>
       </c>
       <c r="B8" s="8">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="C8" s="8">
         <v>0.16</v>
@@ -5804,79 +5936,79 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9">
         <v>-0.99399999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" t="s">
         <v>280</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>281</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>282</v>
       </c>
-      <c r="L9" t="s">
-        <v>283</v>
-      </c>
       <c r="M9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="15">
         <f>A8+B9*B8</f>
-        <v>-0.19413999999999998</v>
+        <v>-0.25736000000000003</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0.26</v>
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0.34</v>
       </c>
       <c r="H10">
         <f>(F10-H$12)*(G$11^2)</f>
-        <v>1.1328800000000003E-2</v>
+        <v>9.1728000000000001E-3</v>
       </c>
       <c r="I10">
         <f>(F11-H$12)*G$10*G$11*F$12</f>
-        <v>3.9603200000000007E-3</v>
+        <v>6.7001760000000013E-3</v>
       </c>
       <c r="J10">
         <f>H10</f>
-        <v>1.1328800000000003E-2</v>
+        <v>9.1728000000000001E-3</v>
       </c>
       <c r="K10">
         <f>(F11-H$12)*(G$10)^2</f>
-        <v>8.6528000000000004E-3</v>
+        <v>1.0635200000000003E-2</v>
       </c>
       <c r="L10">
         <f>(F10-H$12+F$11-H$12)*(G$10*G$11*F12)</f>
-        <v>6.9924399999999999E-3</v>
-      </c>
-      <c r="M10" s="37">
+        <v>1.0487232000000003E-2</v>
+      </c>
+      <c r="M10" s="13">
         <f>(H10-I10)/(J10+K10-L10)</f>
-        <v>0.56727917740639122</v>
+        <v>0.26528114421472554</v>
       </c>
       <c r="N10" s="37"/>
     </row>
@@ -5891,682 +6023,998 @@
         <v>0.05</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F11" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0.34</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G11" s="41">
+        <v>0.42</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="13">
         <f>1-M10</f>
-        <v>0.43272082259360878</v>
+        <v>0.73471885578527441</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12">
         <v>-1.645</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
         <v>211</v>
       </c>
       <c r="F12" s="26">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="G12" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="44">
-        <v>3.2000000000000001E-2</v>
+      <c r="H12" s="41">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J12" s="37">
         <f>M$10*F10+M$11*F11</f>
-        <v>0.14298162467780826</v>
+        <v>0.129388754231411</v>
       </c>
       <c r="K12">
         <f>(M$10^2)*(G$10^2)</f>
-        <v>2.175406296203574E-2</v>
+        <v>8.1352442810110372E-3</v>
       </c>
       <c r="L12">
         <f>(M$11^2)*(G$11^2)</f>
-        <v>2.1645789071383943E-2</v>
+        <v>9.5222800998988985E-2</v>
       </c>
       <c r="M12">
         <f>2*M10*M11*G10*G11*F12</f>
-        <v>1.5189900940351697E-2</v>
+        <v>2.8389382547666157E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="15">
         <f>A11+B12*B11</f>
         <v>-0.64270000000000005</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F13" s="8">
         <v>0.05</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H13" s="26">
         <v>-1.645</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J13">
         <f>SQRT(K12+L12+M12)</f>
-        <v>0.24205320277528117</v>
+        <v>0.36297028504777934</v>
       </c>
       <c r="K13" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="43">
+        <v>294</v>
+      </c>
+      <c r="L13" s="40">
         <f>(J12-H$12)/J$13</f>
-        <v>0.45850095518398098</v>
+        <v>0.22422979947434937</v>
       </c>
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B14" s="8">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="C14" s="8">
         <v>0.01</v>
       </c>
       <c r="K14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L14" s="4">
         <f>J12+J13*H13</f>
-        <v>-0.25519589388752928</v>
+        <v>-0.46769736467218598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15">
         <v>2.3260000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="15">
         <f>A14+B15*B14</f>
-        <v>1.1334400000000002</v>
+        <v>1.5821200000000002</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>80</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="J16" t="s">
+        <v>289</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="J16" t="s">
-        <v>290</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="19" t="s">
+      <c r="N16" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17">
       <c r="H17" s="19">
         <v>2011</v>
       </c>
-      <c r="I17" s="19">
-        <v>-15.13</v>
+      <c r="I17" s="34">
+        <v>-12.6</v>
       </c>
       <c r="J17" s="19">
         <f>I17-M17</f>
-        <v>-17.130000000000003</v>
-      </c>
-      <c r="K17" s="19">
-        <v>-25.5</v>
+        <v>-13.6</v>
+      </c>
+      <c r="K17" s="34">
+        <v>-24.5</v>
       </c>
       <c r="L17" s="19">
         <f>K17-M17</f>
-        <v>-27.5</v>
-      </c>
-      <c r="M17" s="19">
-        <v>2</v>
+        <v>-25.5</v>
+      </c>
+      <c r="M17" s="34">
+        <v>1</v>
       </c>
       <c r="N17" s="19">
         <f>J17-L17</f>
-        <v>10.369999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" thickBot="1">
       <c r="H18" s="19">
         <v>2012</v>
       </c>
-      <c r="I18" s="19">
-        <v>25.1</v>
+      <c r="I18" s="34">
+        <v>25.4</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" ref="J18:J21" si="0">I18-M18</f>
-        <v>21.1</v>
-      </c>
-      <c r="K18" s="19">
-        <v>19.600000000000001</v>
+        <v>22.4</v>
+      </c>
+      <c r="K18" s="34">
+        <v>19.5</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" ref="L18:L21" si="1">K18-M18</f>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="M18" s="19">
-        <v>4</v>
+        <v>16.5</v>
+      </c>
+      <c r="M18" s="34">
+        <v>3</v>
       </c>
       <c r="N18" s="19">
         <f t="shared" ref="N18:N21" si="2">J18-L18</f>
-        <v>5.5</v>
+        <v>5.8999999999999986</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>285</v>
+      <c r="G19" s="52" t="s">
+        <v>291</v>
       </c>
       <c r="H19" s="19">
         <v>2013</v>
       </c>
-      <c r="I19" s="19">
-        <v>12.5</v>
+      <c r="I19" s="34">
+        <v>8.5</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="K19" s="19">
-        <v>9.6999999999999993</v>
+        <v>6.5</v>
+      </c>
+      <c r="K19" s="34">
+        <v>9.4</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="1"/>
-        <v>7.6999999999999993</v>
-      </c>
-      <c r="M19" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="M19" s="34">
         <v>2</v>
       </c>
       <c r="N19" s="19">
         <f t="shared" si="2"/>
-        <v>2.8000000000000007</v>
+        <v>-0.90000000000000036</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17">
-      <c r="A20" s="19">
+      <c r="A20" s="53">
         <v>2011</v>
       </c>
-      <c r="B20" s="19">
-        <v>-15.13</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="19">
-        <v>-25.5</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>255</v>
+      <c r="B20" s="34">
+        <v>-15.2</v>
+      </c>
+      <c r="C20" s="54">
+        <f>B20-F20</f>
+        <v>-18.2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>-30.5</v>
+      </c>
+      <c r="E20" s="54">
+        <f>D20-F20</f>
+        <v>-33.5</v>
+      </c>
+      <c r="F20" s="34">
+        <v>3</v>
+      </c>
+      <c r="G20" s="55">
+        <f>C20-E20</f>
+        <v>15.3</v>
       </c>
       <c r="H20" s="19">
         <v>2014</v>
       </c>
-      <c r="I20" s="19">
-        <v>6.4</v>
+      <c r="I20" s="34">
+        <v>15.5</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="K20" s="19">
+        <v>11.5</v>
+      </c>
+      <c r="K20" s="34">
         <v>7.6</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="1"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="34">
         <v>4</v>
       </c>
       <c r="N20" s="19">
         <f t="shared" si="2"/>
-        <v>-1.1999999999999993</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17">
-      <c r="A21" s="19">
+      <c r="A21" s="53">
         <v>2012</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="34">
         <v>25.1</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19">
+      <c r="C21" s="54">
+        <f t="shared" ref="C21:C24" si="3">B21-F21</f>
+        <v>21.1</v>
+      </c>
+      <c r="D21" s="34">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E21" s="54">
+        <f t="shared" ref="E21:E24" si="4">D21-F21</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F21" s="34">
         <v>4</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="55">
+        <f t="shared" ref="G21:G24" si="5">C21-E21</f>
+        <v>5</v>
+      </c>
       <c r="H21" s="19">
         <v>2015</v>
       </c>
-      <c r="I21" s="19">
-        <v>-1.26</v>
+      <c r="I21" s="34">
+        <v>2.6</v>
       </c>
       <c r="J21" s="19">
         <f t="shared" si="0"/>
-        <v>-4.26</v>
-      </c>
-      <c r="K21" s="19">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K21" s="34">
         <v>-2.2000000000000002</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="1"/>
-        <v>-5.2</v>
-      </c>
-      <c r="M21" s="19">
-        <v>3</v>
+        <v>-4.2</v>
+      </c>
+      <c r="M21" s="34">
+        <v>2</v>
       </c>
       <c r="N21" s="19">
         <f t="shared" si="2"/>
-        <v>0.94000000000000039</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17">
-      <c r="A22" s="19">
+      <c r="A22" s="53">
         <v>2013</v>
       </c>
-      <c r="B22" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19">
+      <c r="B22" s="34">
+        <v>13</v>
+      </c>
+      <c r="C22" s="54">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D22" s="34">
+        <v>11.2</v>
+      </c>
+      <c r="E22" s="54">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F22" s="34">
         <v>2</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="55">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000007</v>
+      </c>
       <c r="H22" s="19" t="s">
         <v>79</v>
       </c>
       <c r="I22">
         <f>AVERAGE(I17:I21)</f>
-        <v>5.5219999999999994</v>
+        <v>7.88</v>
       </c>
       <c r="K22">
         <f>AVERAGE(K17:K21)</f>
-        <v>1.8399999999999999</v>
+        <v>1.9600000000000002</v>
       </c>
       <c r="M22">
         <f>AVERAGE(M17:M21)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17">
+      <c r="A23" s="53">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="C23" s="54">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="D23" s="34">
+        <v>8</v>
+      </c>
+      <c r="E23" s="54">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17">
-      <c r="A23" s="19">
-        <v>2014</v>
-      </c>
-      <c r="B23" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19">
-        <v>4</v>
-      </c>
-      <c r="G23" s="19"/>
+      <c r="F23" s="34">
+        <v>5</v>
+      </c>
+      <c r="G23" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.59999999999999964</v>
+      </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I23">
         <f>STDEV(I17:I21)</f>
-        <v>15.043786757329421</v>
+        <v>14.254016977680363</v>
       </c>
       <c r="K23">
         <f>STDEV(K17:K21)</f>
-        <v>17.133096626121034</v>
+        <v>16.675221137963959</v>
       </c>
       <c r="N23" s="12">
         <f>STDEV(N17:N21)</f>
-        <v>4.4767421189968033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17">
-      <c r="A24" s="19">
+        <v>4.6756817684697074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" thickBot="1">
+      <c r="A24" s="56">
         <v>2015</v>
       </c>
-      <c r="B24" s="19">
-        <v>-1.26</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19">
+      <c r="B24" s="34">
+        <v>-1.56</v>
+      </c>
+      <c r="C24" s="57">
+        <f t="shared" si="3"/>
+        <v>-4.5600000000000005</v>
+      </c>
+      <c r="D24" s="34">
+        <v>-3.2</v>
+      </c>
+      <c r="E24" s="57">
+        <f t="shared" si="4"/>
+        <v>-6.2</v>
+      </c>
+      <c r="F24" s="34">
         <v>3</v>
       </c>
+      <c r="G24" s="58">
+        <f t="shared" si="5"/>
+        <v>1.6399999999999997</v>
+      </c>
       <c r="H24" t="s">
-        <v>288</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.95</v>
+        <v>287</v>
+      </c>
+      <c r="I24" s="60">
+        <f>_xlfn.COVARIANCE.S(I17:I21,K17:K21)/(_xlfn.STDEV.S(I17:I21)*_xlfn.STDEV.S(K17:K21))</f>
+        <v>0.9663430403986204</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25">
         <f>AVERAGE(B20:B24)</f>
-        <v>5.5219999999999994</v>
-      </c>
-      <c r="F25" s="45">
+        <v>5.7480000000000011</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(D20:D24)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F25">
         <f>AVERAGE(F20:F24)</f>
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>216</v>
       </c>
       <c r="I25">
         <f>I24*(I23/K23)</f>
-        <v>0.83415145150550607</v>
+        <v>0.82603223010612681</v>
+      </c>
+      <c r="K25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="12">
         <f>STDEV(B20:B24)</f>
-        <v>15.043786757329421</v>
+        <v>15.182605836943804</v>
       </c>
       <c r="D26">
         <f>STDEV(D20:D24)</f>
-        <v>17.133096626121034</v>
+        <v>19.542696845624967</v>
+      </c>
+      <c r="G26" s="12">
+        <f>STDEV(G20:G24)</f>
+        <v>6.2906215909081675</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="I26" s="4">
+        <v>288</v>
+      </c>
+      <c r="I26" s="59">
         <f>I22/100-(M22/100+(K22/100-M22/100)*I25)</f>
-        <v>3.489615683746386E-2</v>
+        <v>5.8434541812466947E-2</v>
+      </c>
+      <c r="K26" s="37">
+        <f>I24*I24</f>
+        <v>0.93381887172684974</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17">
       <c r="A27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" s="40">
+        <f>(B25/100-F25/100)/(B26/100)</f>
+        <v>0.15465065913037254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" s="4">
+        <f>B25/100-(F25/100+(D25/100-M22/100)*B29)</f>
+        <v>3.3125917119862382E-2</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" s="42">
+        <f>I26/N23</f>
+        <v>1.2497544680332649E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17">
+      <c r="A28" t="s">
         <v>287</v>
-      </c>
-      <c r="B27" s="43">
-        <f>(B25/100-F25/100)/(B26/100)</f>
-        <v>0.16764396097088161</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I27" s="46">
-        <f>I26/N23</f>
-        <v>7.7949892823587002E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>288</v>
       </c>
       <c r="B28" s="3">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="C28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="40">
+        <f>D27/(G26)*100</f>
+        <v>0.52659211241921233</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" s="40">
+        <f>(I22/100-M22/100)/(I23/100)</f>
+        <v>0.38445302882554799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" s="12">
         <f>(B26/D26)*B28</f>
-        <v>0.85171253469509567</v>
+        <v>0.75358727498924782</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I29" s="40">
+        <f>(I22/100-M22/100)/I25</f>
+        <v>6.634123706403007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17">
       <c r="A30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B30" s="43">
+        <v>293</v>
+      </c>
+      <c r="B30" s="40">
         <f>(B25/100-F25/100)/B29</f>
-        <v>2.9610929712368849E-2</v>
+        <v>3.1157638642896432E-2</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>80</v>
       </c>
       <c r="I30" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>285</v>
+      <c r="N30" s="19" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17">
       <c r="H31" s="19">
         <v>2011</v>
       </c>
-      <c r="I31" s="19">
-        <v>-18.2</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="K31" s="19">
-        <v>-35.5</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="M31" s="19">
-        <v>2</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>255</v>
+      <c r="I31" s="34">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="J31" s="19">
+        <f>I31-M31</f>
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="K31" s="34">
+        <v>-37.5</v>
+      </c>
+      <c r="L31" s="19">
+        <f>K31-M31</f>
+        <v>-38.5</v>
+      </c>
+      <c r="M31" s="34">
+        <v>1</v>
+      </c>
+      <c r="N31" s="19">
+        <f>J31-L31</f>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>266</v>
+      </c>
       <c r="H32" s="19">
         <v>2012</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="34">
         <v>25.1</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19">
-        <v>20.6</v>
-      </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19">
-        <v>5</v>
-      </c>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="8:14" ht="17">
+      <c r="J32" s="19">
+        <f t="shared" ref="J32:J35" si="6">I32-M32</f>
+        <v>21.1</v>
+      </c>
+      <c r="K32" s="34">
+        <v>20.8</v>
+      </c>
+      <c r="L32" s="19">
+        <f t="shared" ref="L32:L35" si="7">K32-M32</f>
+        <v>16.8</v>
+      </c>
+      <c r="M32" s="34">
+        <v>4</v>
+      </c>
+      <c r="N32" s="19">
+        <f t="shared" ref="N32:N35" si="8">J32-L32</f>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17">
+      <c r="A33" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="H33" s="19">
         <v>2013</v>
       </c>
-      <c r="I33" s="19">
-        <v>13.5</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19">
-        <v>12.7</v>
-      </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19">
+      <c r="I33" s="34">
+        <v>13.7</v>
+      </c>
+      <c r="J33" s="19">
+        <f t="shared" si="6"/>
+        <v>11.7</v>
+      </c>
+      <c r="K33" s="34">
+        <v>13.3</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" si="7"/>
+        <v>11.3</v>
+      </c>
+      <c r="M33" s="34">
         <v>2</v>
       </c>
-      <c r="N33" s="19"/>
-    </row>
-    <row r="34" spans="8:14" ht="17">
+      <c r="N33" s="19">
+        <f t="shared" si="8"/>
+        <v>0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17">
+      <c r="A34" s="13">
+        <f>A33/12</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B34" s="13">
+        <f>B33/SQRT(12)</f>
+        <v>0.12701705922171769</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="13">
+        <f>E33/12</f>
+        <v>9.3333333333333341E-3</v>
+      </c>
+      <c r="F34" s="13">
+        <f>F33/SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
       <c r="H34" s="19">
         <v>2014</v>
       </c>
-      <c r="I34" s="19">
-        <v>6.8</v>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19">
+      <c r="I34" s="34">
+        <v>7.2</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K34" s="34">
         <v>8.4</v>
       </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19">
+      <c r="L34" s="19">
+        <f t="shared" si="7"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="M34" s="34">
         <v>6</v>
       </c>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" spans="8:14" ht="17">
+      <c r="N34" s="19">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17">
+      <c r="A35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35">
+        <v>-1.96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="22">
+        <v>-1.96</v>
+      </c>
       <c r="H35" s="19">
         <v>2015</v>
       </c>
-      <c r="I35" s="19">
-        <v>-1.86</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19">
+      <c r="I35" s="34">
+        <v>-1.98</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="6"/>
+        <v>-3.98</v>
+      </c>
+      <c r="K35" s="34">
         <v>-4.2</v>
       </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19">
-        <v>3</v>
-      </c>
-      <c r="N35" s="19"/>
-    </row>
-    <row r="36" spans="8:14">
+      <c r="L35" s="19">
+        <f t="shared" si="7"/>
+        <v>-6.2</v>
+      </c>
+      <c r="M35" s="34">
+        <v>2</v>
+      </c>
+      <c r="N35" s="19">
+        <f t="shared" si="8"/>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="15">
+        <f>A34+(B35*B34)</f>
+        <v>-0.23395343607456665</v>
+      </c>
+      <c r="E36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" s="15">
+        <f>E33+(F35*F33)</f>
+        <v>-0.82879999999999998</v>
+      </c>
       <c r="H36" t="s">
         <v>79</v>
       </c>
       <c r="I36">
         <f>AVERAGE(I31:I35)</f>
-        <v>5.0680000000000005</v>
+        <v>4.9240000000000004</v>
       </c>
       <c r="K36">
         <f>AVERAGE(K31:K35)</f>
-        <v>0.40000000000000019</v>
+        <v>0.16000000000000031</v>
       </c>
       <c r="M36">
         <f>AVERAGE(M31:M35)</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="37" spans="8:14">
+        <v>3</v>
+      </c>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="H37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I37">
         <f>STDEV(I31:I35)</f>
-        <v>16.315456475379413</v>
+        <v>16.797258109584433</v>
       </c>
       <c r="K37">
         <f>STDEV(K31:K35)</f>
-        <v>21.984653738460381</v>
+        <v>22.933883229841385</v>
       </c>
       <c r="M37">
         <f>STDEV(M31:M35)</f>
-        <v>1.8165902124584952</v>
-      </c>
-    </row>
-    <row r="38" spans="8:14" ht="17">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <f>STDEV(N31:N35)</f>
+        <v>7.7322364164580497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="H38" t="s">
         <v>211</v>
       </c>
-      <c r="I38" s="19">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="39" spans="8:14">
+      <c r="I38" s="60">
+        <f>_xlfn.COVARIANCE.S(I31:I35,K31:K35)/(_xlfn.STDEV.S(I31:I35)*_xlfn.STDEV.S(K31:K35))</f>
+        <v>0.9712775206253037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="H39" t="s">
         <v>216</v>
       </c>
       <c r="I39" s="12">
         <f>I38*(I37/K37)</f>
-        <v>0.71986545566700155</v>
-      </c>
-    </row>
-    <row r="40" spans="8:14">
+        <v>0.71138407074261889</v>
+      </c>
+      <c r="K39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="H40" t="s">
-        <v>295</v>
-      </c>
-      <c r="I40" s="5">
+        <v>294</v>
+      </c>
+      <c r="I40" s="40">
         <f>(I36/100-M36/100)/(I37/100)</f>
-        <v>8.9976029920784781E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="8:14">
+        <v>0.11454250374959564</v>
+      </c>
+      <c r="K40" s="37">
+        <f>I38*I38</f>
+        <v>0.94338002207203731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="H41" t="s">
-        <v>294</v>
-      </c>
-      <c r="I41" s="43">
+        <v>293</v>
+      </c>
+      <c r="I41" s="40">
         <f>(I36/100-M36/100)/I39</f>
-        <v>2.0392699614121691E-2</v>
-      </c>
+        <v>2.7045868457407592E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17">
+      <c r="H42" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I42" s="59">
+        <f>I36/100-(M36/100+(K36/100-M36/100)*I39)</f>
+        <v>3.9443307609090379E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17">
+      <c r="H43" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I43" s="61">
+        <f>I42/N37</f>
+        <v>5.1011512691380434E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17">
+      <c r="A45" s="48"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:14" ht="17">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:14" ht="17">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:14" ht="17">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="17">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" ht="17">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" ht="17" thickBot="1">
+      <c r="A51" s="46"/>
+    </row>
+    <row r="52" spans="1:7" ht="17" thickTop="1">
+      <c r="A52" s="44"/>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A51:A52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
